--- a/Comparación de variables.xlsx
+++ b/Comparación de variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\DIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JGOR\Documents\QPM_DIE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D135139-800F-4B8B-8207-D78F5DF70AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5180F68C-5E8C-4E06-8498-8541CE257911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6646B99E-7561-41B3-83D6-6F856EF20704}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{6646B99E-7561-41B3-83D6-6F856EF20704}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="241">
   <si>
     <t>QPM</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>Las variables del SVAR, que no están en el QPM son faciles de implementar. Al contrario no es necesariamente así.</t>
+  </si>
+  <si>
+    <t>Agregada</t>
   </si>
 </sst>
 </file>
@@ -1411,9 +1414,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1444,6 +1444,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1480,7 +1481,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,36 +1801,36 @@
   <dimension ref="B1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5546875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="1"/>
-    <col min="9" max="9" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.21875" customWidth="1"/>
-    <col min="12" max="12" width="39.109375" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="39.140625" customWidth="1"/>
     <col min="13" max="13" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="64"/>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="51"/>
       <c r="C1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>238</v>
       </c>
@@ -1835,8 +1838,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
@@ -1853,11 +1856,11 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="2:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -1867,10 +1870,10 @@
         <v>26</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="47" t="s">
+      <c r="G5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="H5" s="41" t="s">
         <v>24</v>
       </c>
       <c r="I5" s="30" t="s">
@@ -1887,11 +1890,11 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="28" t="s">
@@ -1901,10 +1904,10 @@
         <v>27</v>
       </c>
       <c r="F6" s="24"/>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>5</v>
       </c>
       <c r="I6" s="25" t="s">
@@ -1917,11 +1920,11 @@
       <c r="L6" s="32"/>
       <c r="M6" s="33"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="49" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="43" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -1931,10 +1934,10 @@
         <v>28</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="43" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="25" t="s">
@@ -1947,11 +1950,11 @@
       <c r="L7" s="34"/>
       <c r="M7" s="35"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="49" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -1961,10 +1964,10 @@
         <v>28</v>
       </c>
       <c r="F8" s="24"/>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="43" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="25" t="s">
@@ -1977,11 +1980,11 @@
       <c r="L8" s="34"/>
       <c r="M8" s="35"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="50" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -1991,10 +1994,10 @@
         <v>27</v>
       </c>
       <c r="F9" s="24"/>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="44"/>
       <c r="I9" s="27"/>
       <c r="J9" s="37"/>
       <c r="K9" s="24"/>
@@ -2003,11 +2006,11 @@
       </c>
       <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="49" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -2017,10 +2020,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="24"/>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="43" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="25" t="s">
@@ -2033,11 +2036,11 @@
       <c r="L10" s="34"/>
       <c r="M10" s="35"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="44" t="s">
         <v>35</v>
       </c>
       <c r="D11" s="27" t="s">
@@ -2047,10 +2050,10 @@
         <v>27</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="27"/>
       <c r="J11" s="37"/>
       <c r="K11" s="24"/>
@@ -2059,11 +2062,11 @@
       </c>
       <c r="M11" s="35"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="50" t="s">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="44" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="27" t="s">
@@ -2073,10 +2076,10 @@
         <v>27</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="45"/>
+      <c r="H12" s="44"/>
       <c r="I12" s="27"/>
       <c r="J12" s="37"/>
       <c r="K12" s="24"/>
@@ -2085,25 +2088,25 @@
       </c>
       <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="49"/>
-      <c r="C13" s="44"/>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="48"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="25"/>
       <c r="E13" s="35"/>
       <c r="F13" s="24"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="43"/>
       <c r="I13" s="25"/>
       <c r="J13" s="35"/>
       <c r="K13" s="24"/>
       <c r="L13" s="34"/>
       <c r="M13" s="35"/>
     </row>
-    <row r="14" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="50" t="s">
+    <row r="14" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="27" t="s">
@@ -2113,10 +2116,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="45"/>
+      <c r="G14" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="44"/>
       <c r="I14" s="27"/>
       <c r="J14" s="37"/>
       <c r="K14" s="24"/>
@@ -2125,25 +2128,25 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="49"/>
-      <c r="C15" s="44"/>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="25"/>
       <c r="E15" s="35"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="44"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="25"/>
       <c r="J15" s="35"/>
       <c r="K15" s="24"/>
       <c r="L15" s="34"/>
       <c r="M15" s="35"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="49" t="s">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="43" t="s">
         <v>41</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -2153,10 +2156,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="24"/>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="43" t="s">
         <v>44</v>
       </c>
       <c r="I16" s="25" t="s">
@@ -2169,11 +2172,11 @@
       <c r="L16" s="34"/>
       <c r="M16" s="35"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -2183,10 +2186,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="43" t="s">
         <v>47</v>
       </c>
       <c r="I17" s="25" t="s">
@@ -2199,11 +2202,11 @@
       <c r="L17" s="34"/>
       <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -2213,10 +2216,10 @@
         <v>27</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="43" t="s">
         <v>22</v>
       </c>
       <c r="I18" s="25" t="s">
@@ -2229,11 +2232,11 @@
       <c r="L18" s="34"/>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="50" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="44" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -2243,10 +2246,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="24"/>
-      <c r="G19" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="45"/>
+      <c r="G19" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="44"/>
       <c r="I19" s="27"/>
       <c r="J19" s="37"/>
       <c r="K19" s="24"/>
@@ -2255,11 +2258,11 @@
       </c>
       <c r="M19" s="35"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="27" t="s">
@@ -2269,10 +2272,10 @@
         <v>27</v>
       </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="45"/>
+      <c r="G20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="44"/>
       <c r="I20" s="27"/>
       <c r="J20" s="37"/>
       <c r="K20" s="24"/>
@@ -2281,25 +2284,25 @@
       </c>
       <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="49"/>
-      <c r="C21" s="44"/>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="25"/>
       <c r="E21" s="35"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="25"/>
       <c r="J21" s="35"/>
       <c r="K21" s="24"/>
       <c r="L21" s="34"/>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="43" t="s">
         <v>56</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -2309,10 +2312,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="44" t="s">
+      <c r="H22" s="43" t="s">
         <v>61</v>
       </c>
       <c r="I22" s="25" t="s">
@@ -2325,11 +2328,11 @@
       <c r="L22" s="34"/>
       <c r="M22" s="35"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="25" t="s">
@@ -2339,10 +2342,10 @@
         <v>28</v>
       </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="44" t="s">
+      <c r="H23" s="43" t="s">
         <v>29</v>
       </c>
       <c r="I23" s="25" t="s">
@@ -2355,11 +2358,11 @@
       <c r="L23" s="34"/>
       <c r="M23" s="35"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="25" t="s">
@@ -2369,10 +2372,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="H24" s="44" t="s">
+      <c r="H24" s="43" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="25" t="s">
@@ -2385,25 +2388,25 @@
       <c r="L24" s="34"/>
       <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
-      <c r="C25" s="44"/>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="48"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="25"/>
       <c r="E25" s="35"/>
       <c r="F25" s="24"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="44"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="25"/>
       <c r="J25" s="35"/>
       <c r="K25" s="24"/>
       <c r="L25" s="34"/>
       <c r="M25" s="35"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="50" t="s">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="44" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="27" t="s">
@@ -2413,10 +2416,10 @@
         <v>27</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="45"/>
+      <c r="H26" s="44"/>
       <c r="I26" s="27"/>
       <c r="J26" s="37"/>
       <c r="K26" s="24"/>
@@ -2425,25 +2428,25 @@
       </c>
       <c r="M26" s="35"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="44"/>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="48"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="25"/>
       <c r="E27" s="35"/>
       <c r="F27" s="24"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="44"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="25"/>
       <c r="J27" s="35"/>
       <c r="K27" s="24"/>
       <c r="L27" s="34"/>
       <c r="M27" s="35"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="49" t="s">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>70</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -2453,10 +2456,10 @@
         <v>28</v>
       </c>
       <c r="F28" s="24"/>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="43" t="s">
         <v>22</v>
       </c>
       <c r="I28" s="25" t="s">
@@ -2469,11 +2472,11 @@
       <c r="L28" s="34"/>
       <c r="M28" s="35"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="50" t="s">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="44" t="s">
         <v>72</v>
       </c>
       <c r="D29" s="27" t="s">
@@ -2483,10 +2486,10 @@
         <v>27</v>
       </c>
       <c r="F29" s="24"/>
-      <c r="G29" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="45"/>
+      <c r="G29" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="44"/>
       <c r="I29" s="27"/>
       <c r="J29" s="37"/>
       <c r="K29" s="24"/>
@@ -2495,11 +2498,11 @@
       </c>
       <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="50" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="27" t="s">
@@ -2509,10 +2512,10 @@
         <v>30</v>
       </c>
       <c r="F30" s="24"/>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="45"/>
+      <c r="H30" s="44"/>
       <c r="I30" s="27"/>
       <c r="J30" s="37"/>
       <c r="K30" s="24"/>
@@ -2521,25 +2524,25 @@
       </c>
       <c r="M30" s="35"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="44"/>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="48"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="25"/>
       <c r="E31" s="35"/>
       <c r="F31" s="24"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="43"/>
       <c r="I31" s="25"/>
       <c r="J31" s="35"/>
       <c r="K31" s="24"/>
       <c r="L31" s="34"/>
       <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="49" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D32" s="25" t="s">
@@ -2549,10 +2552,10 @@
         <v>82</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="44" t="s">
+      <c r="H32" s="43" t="s">
         <v>22</v>
       </c>
       <c r="I32" s="25" t="s">
@@ -2565,11 +2568,11 @@
       <c r="L32" s="34"/>
       <c r="M32" s="35"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="49" t="s">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="25" t="s">
@@ -2579,10 +2582,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="44" t="s">
+      <c r="H33" s="43" t="s">
         <v>77</v>
       </c>
       <c r="I33" s="25" t="s">
@@ -2595,11 +2598,11 @@
       <c r="L33" s="34"/>
       <c r="M33" s="35"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="50" t="s">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="44" t="s">
         <v>80</v>
       </c>
       <c r="D34" s="27" t="s">
@@ -2609,10 +2612,10 @@
         <v>81</v>
       </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" s="45"/>
+      <c r="G34" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" s="44"/>
       <c r="I34" s="27"/>
       <c r="J34" s="37"/>
       <c r="K34" s="24"/>
@@ -2621,25 +2624,25 @@
       </c>
       <c r="M34" s="35"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="49"/>
-      <c r="C35" s="44"/>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="48"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="25"/>
       <c r="E35" s="35"/>
       <c r="F35" s="24"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="44"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="43"/>
       <c r="I35" s="25"/>
       <c r="J35" s="35"/>
       <c r="K35" s="24"/>
       <c r="L35" s="34"/>
       <c r="M35" s="35"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="49" t="s">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="43" t="s">
         <v>84</v>
       </c>
       <c r="D36" s="25" t="s">
@@ -2649,10 +2652,10 @@
         <v>28</v>
       </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="43" t="s">
         <v>86</v>
       </c>
       <c r="I36" s="25" t="s">
@@ -2665,11 +2668,11 @@
       <c r="L36" s="34"/>
       <c r="M36" s="35"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="49" t="s">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D37" s="25" t="s">
@@ -2679,10 +2682,10 @@
         <v>27</v>
       </c>
       <c r="F37" s="24"/>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="H37" s="44" t="s">
+      <c r="H37" s="43" t="s">
         <v>29</v>
       </c>
       <c r="I37" s="25" t="s">
@@ -2695,11 +2698,11 @@
       <c r="L37" s="34"/>
       <c r="M37" s="35"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="49" t="s">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D38" s="25" t="s">
@@ -2709,10 +2712,10 @@
         <v>27</v>
       </c>
       <c r="F38" s="24"/>
-      <c r="G38" s="49" t="s">
+      <c r="G38" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H38" s="44" t="s">
+      <c r="H38" s="43" t="s">
         <v>22</v>
       </c>
       <c r="I38" s="25" t="s">
@@ -2725,11 +2728,11 @@
       <c r="L38" s="34"/>
       <c r="M38" s="35"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="50" t="s">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>93</v>
       </c>
       <c r="D39" s="27" t="s">
@@ -2739,10 +2742,10 @@
         <v>27</v>
       </c>
       <c r="F39" s="24"/>
-      <c r="G39" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="45"/>
+      <c r="G39" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="44"/>
       <c r="I39" s="27"/>
       <c r="J39" s="37"/>
       <c r="K39" s="24"/>
@@ -2751,11 +2754,11 @@
       </c>
       <c r="M39" s="35"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="44" t="s">
         <v>95</v>
       </c>
       <c r="D40" s="27" t="s">
@@ -2765,10 +2768,10 @@
         <v>27</v>
       </c>
       <c r="F40" s="24"/>
-      <c r="G40" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="45"/>
+      <c r="G40" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="44"/>
       <c r="I40" s="27"/>
       <c r="J40" s="37"/>
       <c r="K40" s="24"/>
@@ -2777,11 +2780,11 @@
       </c>
       <c r="M40" s="35"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="50" t="s">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="44" t="s">
         <v>96</v>
       </c>
       <c r="D41" s="27" t="s">
@@ -2791,10 +2794,10 @@
         <v>28</v>
       </c>
       <c r="F41" s="24"/>
-      <c r="G41" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="45"/>
+      <c r="G41" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="44"/>
       <c r="I41" s="27"/>
       <c r="J41" s="37"/>
       <c r="K41" s="24"/>
@@ -2803,11 +2806,11 @@
       </c>
       <c r="M41" s="35"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="50" t="s">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="44" t="s">
         <v>98</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -2817,10 +2820,10 @@
         <v>27</v>
       </c>
       <c r="F42" s="24"/>
-      <c r="G42" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="45"/>
+      <c r="G42" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="44"/>
       <c r="I42" s="27"/>
       <c r="J42" s="37"/>
       <c r="K42" s="24"/>
@@ -2829,25 +2832,25 @@
       </c>
       <c r="M42" s="35"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="49"/>
-      <c r="C43" s="44"/>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="48"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="25"/>
       <c r="E43" s="35"/>
       <c r="F43" s="24"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="44"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="43"/>
       <c r="I43" s="25"/>
       <c r="J43" s="35"/>
       <c r="K43" s="24"/>
       <c r="L43" s="34"/>
       <c r="M43" s="35"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="49" t="s">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="48" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="43" t="s">
         <v>100</v>
       </c>
       <c r="D44" s="25" t="s">
@@ -2857,10 +2860,10 @@
         <v>27</v>
       </c>
       <c r="F44" s="24"/>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="H44" s="44" t="s">
+      <c r="H44" s="43" t="s">
         <v>102</v>
       </c>
       <c r="I44" s="25" t="s">
@@ -2875,11 +2878,11 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="49" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="43" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="25" t="s">
@@ -2889,10 +2892,10 @@
         <v>27</v>
       </c>
       <c r="F45" s="24"/>
-      <c r="G45" s="49" t="s">
+      <c r="G45" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="44"/>
+      <c r="H45" s="43"/>
       <c r="I45" s="25" t="s">
         <v>12</v>
       </c>
@@ -2903,11 +2906,11 @@
       <c r="L45" s="34"/>
       <c r="M45" s="35"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="49" t="s">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="43" t="s">
         <v>108</v>
       </c>
       <c r="D46" s="25" t="s">
@@ -2917,10 +2920,10 @@
         <v>27</v>
       </c>
       <c r="F46" s="24"/>
-      <c r="G46" s="49" t="s">
+      <c r="G46" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="H46" s="44"/>
+      <c r="H46" s="43"/>
       <c r="I46" s="25" t="s">
         <v>12</v>
       </c>
@@ -2931,11 +2934,11 @@
       <c r="L46" s="34"/>
       <c r="M46" s="35"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="49" t="s">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="25" t="s">
@@ -2945,10 +2948,10 @@
         <v>27</v>
       </c>
       <c r="F47" s="24"/>
-      <c r="G47" s="49" t="s">
+      <c r="G47" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="H47" s="44"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="25" t="s">
         <v>9</v>
       </c>
@@ -2959,11 +2962,11 @@
       <c r="L47" s="34"/>
       <c r="M47" s="35"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="49" t="s">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C48" s="44" t="s">
+      <c r="C48" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D48" s="25" t="s">
@@ -2973,10 +2976,10 @@
         <v>27</v>
       </c>
       <c r="F48" s="24"/>
-      <c r="G48" s="49" t="s">
+      <c r="G48" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="H48" s="44"/>
+      <c r="H48" s="43"/>
       <c r="I48" s="25" t="s">
         <v>9</v>
       </c>
@@ -2987,11 +2990,11 @@
       <c r="L48" s="34"/>
       <c r="M48" s="35"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="50" t="s">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="44" t="s">
         <v>115</v>
       </c>
       <c r="D49" s="27" t="s">
@@ -3001,10 +3004,10 @@
         <v>116</v>
       </c>
       <c r="F49" s="24"/>
-      <c r="G49" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="45"/>
+      <c r="G49" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="44"/>
       <c r="I49" s="27"/>
       <c r="J49" s="37"/>
       <c r="K49" s="24"/>
@@ -3013,25 +3016,25 @@
       </c>
       <c r="M49" s="35"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="49"/>
-      <c r="C50" s="44"/>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" s="48"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="25"/>
       <c r="E50" s="35"/>
       <c r="F50" s="24"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="44"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="43"/>
       <c r="I50" s="25"/>
       <c r="J50" s="35"/>
       <c r="K50" s="24"/>
       <c r="L50" s="34"/>
       <c r="M50" s="35"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="50" t="s">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="44" t="s">
         <v>118</v>
       </c>
       <c r="D51" s="27" t="s">
@@ -3041,10 +3044,10 @@
         <v>123</v>
       </c>
       <c r="F51" s="24"/>
-      <c r="G51" s="50" t="s">
+      <c r="G51" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="H51" s="45"/>
+      <c r="H51" s="44"/>
       <c r="I51" s="27"/>
       <c r="J51" s="37"/>
       <c r="K51" s="24"/>
@@ -3053,11 +3056,11 @@
       </c>
       <c r="M51" s="35"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="50" t="s">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="44" t="s">
         <v>121</v>
       </c>
       <c r="D52" s="27" t="s">
@@ -3067,10 +3070,10 @@
         <v>122</v>
       </c>
       <c r="F52" s="24"/>
-      <c r="G52" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="45"/>
+      <c r="G52" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="44"/>
       <c r="I52" s="27"/>
       <c r="J52" s="37"/>
       <c r="K52" s="24"/>
@@ -3081,25 +3084,25 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="49"/>
-      <c r="C53" s="44"/>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" s="48"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="25"/>
       <c r="E53" s="35"/>
       <c r="F53" s="24"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="44"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="43"/>
       <c r="I53" s="25"/>
       <c r="J53" s="35"/>
       <c r="K53" s="24"/>
       <c r="L53" s="34"/>
       <c r="M53" s="35"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="49" t="s">
+    <row r="54" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="43" t="s">
         <v>127</v>
       </c>
       <c r="D54" s="25" t="s">
@@ -3109,10 +3112,10 @@
         <v>28</v>
       </c>
       <c r="F54" s="24"/>
-      <c r="G54" s="49" t="s">
+      <c r="G54" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="H54" s="44" t="s">
+      <c r="H54" s="43" t="s">
         <v>130</v>
       </c>
       <c r="I54" s="25" t="s">
@@ -3125,11 +3128,11 @@
       <c r="L54" s="34"/>
       <c r="M54" s="35"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="49" t="s">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="43" t="s">
         <v>132</v>
       </c>
       <c r="D55" s="25" t="s">
@@ -3139,10 +3142,10 @@
         <v>27</v>
       </c>
       <c r="F55" s="24"/>
-      <c r="G55" s="49" t="s">
+      <c r="G55" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="H55" s="44" t="s">
+      <c r="H55" s="43" t="s">
         <v>134</v>
       </c>
       <c r="I55" s="25" t="s">
@@ -3157,11 +3160,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="50" t="s">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="44" t="s">
         <v>137</v>
       </c>
       <c r="D56" s="27" t="s">
@@ -3171,10 +3174,10 @@
         <v>116</v>
       </c>
       <c r="F56" s="24"/>
-      <c r="G56" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="45"/>
+      <c r="G56" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H56" s="44"/>
       <c r="I56" s="27"/>
       <c r="J56" s="37"/>
       <c r="K56" s="24"/>
@@ -3185,11 +3188,11 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="50" t="s">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="44" t="s">
         <v>140</v>
       </c>
       <c r="D57" s="27" t="s">
@@ -3199,10 +3202,10 @@
         <v>27</v>
       </c>
       <c r="F57" s="24"/>
-      <c r="G57" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="45"/>
+      <c r="G57" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="44"/>
       <c r="I57" s="27"/>
       <c r="J57" s="37"/>
       <c r="K57" s="24"/>
@@ -3211,11 +3214,11 @@
       </c>
       <c r="M57" s="35"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="50" t="s">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="44" t="s">
         <v>142</v>
       </c>
       <c r="D58" s="27" t="s">
@@ -3225,10 +3228,10 @@
         <v>27</v>
       </c>
       <c r="F58" s="24"/>
-      <c r="G58" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="45"/>
+      <c r="G58" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="44"/>
       <c r="I58" s="27"/>
       <c r="J58" s="37"/>
       <c r="K58" s="24"/>
@@ -3239,25 +3242,25 @@
         <v>143</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="49"/>
-      <c r="C59" s="44"/>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="48"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="25"/>
       <c r="E59" s="35"/>
       <c r="F59" s="24"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="44"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="43"/>
       <c r="I59" s="25"/>
       <c r="J59" s="35"/>
       <c r="K59" s="24"/>
       <c r="L59" s="34"/>
       <c r="M59" s="35"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="50" t="s">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="44" t="s">
         <v>145</v>
       </c>
       <c r="D60" s="27" t="s">
@@ -3267,10 +3270,10 @@
         <v>28</v>
       </c>
       <c r="F60" s="24"/>
-      <c r="G60" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="45"/>
+      <c r="G60" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="44"/>
       <c r="I60" s="27"/>
       <c r="J60" s="37"/>
       <c r="K60" s="24"/>
@@ -3279,25 +3282,25 @@
       </c>
       <c r="M60" s="35"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="49"/>
-      <c r="C61" s="44"/>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" s="48"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="25"/>
       <c r="E61" s="35"/>
       <c r="F61" s="24"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="44"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="43"/>
       <c r="I61" s="25"/>
       <c r="J61" s="35"/>
       <c r="K61" s="24"/>
       <c r="L61" s="34"/>
       <c r="M61" s="35"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="49" t="s">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C62" s="44" t="s">
+      <c r="C62" s="43" t="s">
         <v>147</v>
       </c>
       <c r="D62" s="25" t="s">
@@ -3307,10 +3310,10 @@
         <v>27</v>
       </c>
       <c r="F62" s="24"/>
-      <c r="G62" s="49" t="s">
+      <c r="G62" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="H62" s="44" t="s">
+      <c r="H62" s="43" t="s">
         <v>149</v>
       </c>
       <c r="I62" s="25" t="s">
@@ -3323,11 +3326,11 @@
       <c r="L62" s="34"/>
       <c r="M62" s="35"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="49" t="s">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="25" t="s">
@@ -3337,10 +3340,10 @@
         <v>116</v>
       </c>
       <c r="F63" s="24"/>
-      <c r="G63" s="49" t="s">
+      <c r="G63" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="H63" s="44" t="s">
+      <c r="H63" s="43" t="s">
         <v>29</v>
       </c>
       <c r="I63" s="25" t="s">
@@ -3353,11 +3356,11 @@
       <c r="L63" s="34"/>
       <c r="M63" s="35"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="49" t="s">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="43" t="s">
         <v>22</v>
       </c>
       <c r="D64" s="25" t="s">
@@ -3367,10 +3370,10 @@
         <v>153</v>
       </c>
       <c r="F64" s="24"/>
-      <c r="G64" s="49" t="s">
+      <c r="G64" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="H64" s="44" t="s">
+      <c r="H64" s="43" t="s">
         <v>22</v>
       </c>
       <c r="I64" s="25" t="s">
@@ -3383,25 +3386,25 @@
       <c r="L64" s="34"/>
       <c r="M64" s="35"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="49"/>
-      <c r="C65" s="44"/>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="48"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="25"/>
       <c r="E65" s="35"/>
       <c r="F65" s="24"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="44"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="43"/>
       <c r="I65" s="25"/>
       <c r="J65" s="35"/>
       <c r="K65" s="24"/>
       <c r="L65" s="34"/>
       <c r="M65" s="35"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="49" t="s">
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="43" t="s">
         <v>156</v>
       </c>
       <c r="D66" s="25" t="s">
@@ -3411,10 +3414,10 @@
         <v>28</v>
       </c>
       <c r="F66" s="24"/>
-      <c r="G66" s="49" t="s">
+      <c r="G66" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H66" s="44" t="s">
+      <c r="H66" s="43" t="s">
         <v>158</v>
       </c>
       <c r="I66" s="25" t="s">
@@ -3427,25 +3430,25 @@
       <c r="L66" s="34"/>
       <c r="M66" s="35"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="49"/>
-      <c r="C67" s="44"/>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="48"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="25"/>
       <c r="E67" s="35"/>
       <c r="F67" s="24"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="44"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="43"/>
       <c r="I67" s="25"/>
       <c r="J67" s="35"/>
       <c r="K67" s="24"/>
       <c r="L67" s="34"/>
       <c r="M67" s="35"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="49" t="s">
+    <row r="68" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="44" t="s">
+      <c r="C68" s="43" t="s">
         <v>161</v>
       </c>
       <c r="D68" s="25" t="s">
@@ -3455,10 +3458,10 @@
         <v>28</v>
       </c>
       <c r="F68" s="24"/>
-      <c r="G68" s="49" t="s">
+      <c r="G68" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="H68" s="44" t="s">
+      <c r="H68" s="43" t="s">
         <v>163</v>
       </c>
       <c r="I68" s="25" t="s">
@@ -3471,11 +3474,11 @@
       <c r="L68" s="34"/>
       <c r="M68" s="35"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="50" t="s">
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="45" t="s">
+      <c r="C69" s="44" t="s">
         <v>165</v>
       </c>
       <c r="D69" s="27" t="s">
@@ -3485,10 +3488,10 @@
         <v>153</v>
       </c>
       <c r="F69" s="24"/>
-      <c r="G69" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" s="45"/>
+      <c r="G69" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" s="44"/>
       <c r="I69" s="27"/>
       <c r="J69" s="37"/>
       <c r="K69" s="24"/>
@@ -3497,11 +3500,11 @@
       </c>
       <c r="M69" s="35"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="50" t="s">
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="49" t="s">
         <v>167</v>
       </c>
-      <c r="C70" s="45" t="s">
+      <c r="C70" s="44" t="s">
         <v>168</v>
       </c>
       <c r="D70" s="27" t="s">
@@ -3511,10 +3514,10 @@
         <v>28</v>
       </c>
       <c r="F70" s="24"/>
-      <c r="G70" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="45"/>
+      <c r="G70" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="44"/>
       <c r="I70" s="27"/>
       <c r="J70" s="37"/>
       <c r="K70" s="24"/>
@@ -3523,11 +3526,11 @@
       </c>
       <c r="M70" s="35"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="50" t="s">
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="44" t="s">
         <v>108</v>
       </c>
       <c r="D71" s="27" t="s">
@@ -3537,10 +3540,10 @@
         <v>27</v>
       </c>
       <c r="F71" s="24"/>
-      <c r="G71" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="45"/>
+      <c r="G71" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="44"/>
       <c r="I71" s="27"/>
       <c r="J71" s="37"/>
       <c r="K71" s="24"/>
@@ -3549,11 +3552,11 @@
       </c>
       <c r="M71" s="35"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B72" s="50" t="s">
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="44" t="s">
         <v>171</v>
       </c>
       <c r="D72" s="27" t="s">
@@ -3563,10 +3566,10 @@
         <v>27</v>
       </c>
       <c r="F72" s="24"/>
-      <c r="G72" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H72" s="45"/>
+      <c r="G72" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="44"/>
       <c r="I72" s="27"/>
       <c r="J72" s="37"/>
       <c r="K72" s="24"/>
@@ -3577,46 +3580,46 @@
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B73" s="49"/>
-      <c r="C73" s="44"/>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="48"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="25"/>
       <c r="E73" s="35"/>
       <c r="F73" s="24"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="44"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="43"/>
       <c r="I73" s="25"/>
       <c r="J73" s="35"/>
       <c r="K73" s="24"/>
       <c r="L73" s="34"/>
       <c r="M73" s="35"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B74" s="49"/>
-      <c r="C74" s="44"/>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="48"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="25"/>
       <c r="E74" s="35"/>
       <c r="F74" s="24"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="44"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="43"/>
       <c r="I74" s="25"/>
       <c r="J74" s="35"/>
       <c r="K74" s="24"/>
       <c r="L74" s="34"/>
       <c r="M74" s="35"/>
     </row>
-    <row r="75" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75" s="45"/>
+    <row r="75" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B75" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="44"/>
       <c r="D75" s="27"/>
       <c r="E75" s="37"/>
       <c r="F75" s="24"/>
-      <c r="G75" s="50" t="s">
+      <c r="G75" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="H75" s="45" t="s">
+      <c r="H75" s="44" t="s">
         <v>215</v>
       </c>
       <c r="I75" s="27" t="s">
@@ -3631,18 +3634,18 @@
       </c>
       <c r="M75" s="35"/>
     </row>
-    <row r="76" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B76" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="45"/>
+    <row r="76" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76" s="44"/>
       <c r="D76" s="27"/>
       <c r="E76" s="37"/>
       <c r="F76" s="24"/>
-      <c r="G76" s="50" t="s">
+      <c r="G76" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="H76" s="45" t="s">
+      <c r="H76" s="44" t="s">
         <v>218</v>
       </c>
       <c r="I76" s="27" t="s">
@@ -3655,20 +3658,22 @@
       <c r="L76" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M76" s="35"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="45"/>
+      <c r="M76" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="44"/>
       <c r="D77" s="27"/>
       <c r="E77" s="37"/>
       <c r="F77" s="24"/>
-      <c r="G77" s="50" t="s">
+      <c r="G77" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="H77" s="45" t="s">
+      <c r="H77" s="44" t="s">
         <v>220</v>
       </c>
       <c r="I77" s="27" t="s">
@@ -3683,18 +3688,18 @@
       </c>
       <c r="M77" s="35"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B78" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="45"/>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="44"/>
       <c r="D78" s="27"/>
       <c r="E78" s="37"/>
       <c r="F78" s="24"/>
-      <c r="G78" s="50" t="s">
+      <c r="G78" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="H78" s="45" t="s">
+      <c r="H78" s="44" t="s">
         <v>222</v>
       </c>
       <c r="I78" s="27" t="s">
@@ -3709,18 +3714,18 @@
       </c>
       <c r="M78" s="35"/>
     </row>
-    <row r="79" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="45"/>
+    <row r="79" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="44"/>
       <c r="D79" s="27"/>
       <c r="E79" s="37"/>
       <c r="F79" s="24"/>
-      <c r="G79" s="50" t="s">
+      <c r="G79" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="H79" s="45" t="s">
+      <c r="H79" s="44" t="s">
         <v>224</v>
       </c>
       <c r="I79" s="27" t="s">
@@ -3733,20 +3738,22 @@
       <c r="L79" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M79" s="35"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B80" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C80" s="45"/>
+      <c r="M79" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="44"/>
       <c r="D80" s="27"/>
       <c r="E80" s="37"/>
       <c r="F80" s="24"/>
-      <c r="G80" s="50" t="s">
+      <c r="G80" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="H80" s="45" t="s">
+      <c r="H80" s="44" t="s">
         <v>225</v>
       </c>
       <c r="I80" s="27" t="s">
@@ -3759,34 +3766,36 @@
       <c r="L80" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M80" s="35"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B81" s="49"/>
-      <c r="C81" s="44"/>
+      <c r="M80" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="48"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="25"/>
       <c r="E81" s="35"/>
       <c r="F81" s="24"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="44"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="43"/>
       <c r="I81" s="25"/>
       <c r="J81" s="35"/>
       <c r="K81" s="24"/>
       <c r="L81" s="34"/>
       <c r="M81" s="35"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C82" s="45"/>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="44"/>
       <c r="D82" s="27"/>
       <c r="E82" s="37"/>
       <c r="F82" s="24"/>
-      <c r="G82" s="50" t="s">
+      <c r="G82" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="H82" s="45" t="s">
+      <c r="H82" s="44" t="s">
         <v>22</v>
       </c>
       <c r="I82" s="27" t="s">
@@ -3801,18 +3810,18 @@
       </c>
       <c r="M82" s="35"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B83" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="45"/>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="44"/>
       <c r="D83" s="27"/>
       <c r="E83" s="37"/>
       <c r="F83" s="24"/>
-      <c r="G83" s="50" t="s">
+      <c r="G83" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="H83" s="45" t="s">
+      <c r="H83" s="44" t="s">
         <v>228</v>
       </c>
       <c r="I83" s="27" t="s">
@@ -3825,20 +3834,22 @@
       <c r="L83" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M83" s="35"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B84" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="45"/>
+      <c r="M83" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="44"/>
       <c r="D84" s="27"/>
       <c r="E84" s="37"/>
       <c r="F84" s="24"/>
-      <c r="G84" s="50" t="s">
+      <c r="G84" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="H84" s="45" t="s">
+      <c r="H84" s="44" t="s">
         <v>22</v>
       </c>
       <c r="I84" s="27" t="s">
@@ -3851,34 +3862,36 @@
       <c r="L84" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M84" s="35"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B85" s="49"/>
-      <c r="C85" s="44"/>
+      <c r="M84" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="48"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="25"/>
       <c r="E85" s="35"/>
       <c r="F85" s="24"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="44"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="43"/>
       <c r="I85" s="25"/>
       <c r="J85" s="35"/>
       <c r="K85" s="24"/>
       <c r="L85" s="34"/>
       <c r="M85" s="35"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B86" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C86" s="45"/>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="44"/>
       <c r="D86" s="27"/>
       <c r="E86" s="37"/>
       <c r="F86" s="24"/>
-      <c r="G86" s="50" t="s">
+      <c r="G86" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="H86" s="45" t="s">
+      <c r="H86" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I86" s="27" t="s">
@@ -3891,20 +3904,22 @@
       <c r="L86" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="M86" s="35"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B87" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="45"/>
+      <c r="M86" s="64" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="44"/>
       <c r="D87" s="27"/>
       <c r="E87" s="37"/>
       <c r="F87" s="24"/>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="H87" s="45" t="s">
+      <c r="H87" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I87" s="27" t="s">
@@ -3921,18 +3936,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="45"/>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="44"/>
       <c r="D88" s="27"/>
       <c r="E88" s="37"/>
       <c r="F88" s="24"/>
-      <c r="G88" s="50" t="s">
+      <c r="G88" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="H88" s="45" t="s">
+      <c r="H88" s="44" t="s">
         <v>29</v>
       </c>
       <c r="I88" s="27" t="s">
@@ -3947,18 +3962,18 @@
       </c>
       <c r="M88" s="35"/>
     </row>
-    <row r="89" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="46"/>
+    <row r="89" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="45"/>
       <c r="D89" s="39"/>
       <c r="E89" s="40"/>
       <c r="F89" s="24"/>
-      <c r="G89" s="51" t="s">
+      <c r="G89" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="H89" s="46" t="s">
+      <c r="H89" s="45" t="s">
         <v>29</v>
       </c>
       <c r="I89" s="39" t="s">
@@ -3971,7 +3986,9 @@
       <c r="L89" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="M89" s="41"/>
+      <c r="M89" s="64" t="s">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3991,17 +4008,17 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="4.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C2" s="57" t="s">
         <v>0</v>
       </c>
@@ -4012,12 +4029,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="58"/>
       <c r="D3" s="60"/>
       <c r="E3" s="62"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -4031,7 +4048,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -4041,7 +4058,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="55"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -4053,7 +4070,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -4065,7 +4082,7 @@
       </c>
       <c r="E7" s="55"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -4077,7 +4094,7 @@
       </c>
       <c r="E8" s="55"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -4091,7 +4108,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -4101,7 +4118,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="55"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -4111,7 +4128,7 @@
       <c r="D11" s="12"/>
       <c r="E11" s="55"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -4125,7 +4142,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -4135,7 +4152,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="55"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -4147,7 +4164,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>12</v>
       </c>
@@ -4159,7 +4176,7 @@
       </c>
       <c r="E15" s="55"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -4173,7 +4190,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -4185,7 +4202,7 @@
       </c>
       <c r="E17" s="55"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -4197,7 +4214,7 @@
       </c>
       <c r="E18" s="55"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -4207,7 +4224,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="55"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -4219,7 +4236,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>18</v>
       </c>
@@ -4229,7 +4246,7 @@
       <c r="D21" s="22"/>
       <c r="E21" s="56"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>200</v>
       </c>
